--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.2254</v>
+        <v>-22.1434</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.9455</v>
+        <v>-21.89279999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.22319999999998</v>
+        <v>-20.10949999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -746,12 +746,12 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.248900000000008</v>
+        <v>-8.070200000000003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.15139999999998</v>
+        <v>-20.30899999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -774,12 +774,12 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.480299999999996</v>
+        <v>-7.600399999999997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.7991</v>
+        <v>-21.76209999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.10549999999996</v>
+        <v>-21.05569999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -830,12 +830,12 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.898399999999996</v>
+        <v>-7.943099999999996</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.94409999999996</v>
+        <v>-21.07369999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.202199999999999</v>
+        <v>-6.991799999999997</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.013299999999997</v>
+        <v>-7.200999999999997</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.120099999999991</v>
+        <v>-7.267699999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.018500000000001</v>
+        <v>-7.890799999999998</v>
       </c>
     </row>
     <row r="50">
@@ -1166,12 +1166,12 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.922800000000006</v>
+        <v>-7.976000000000007</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.88040000000001</v>
+        <v>-21.8973</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.942699999999995</v>
+        <v>-7.924299999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.994800000000007</v>
+        <v>-8.065700000000003</v>
       </c>
     </row>
     <row r="55">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.29530000000001</v>
+        <v>-22.30050000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.0812</v>
+        <v>-21.92239999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63619999999998</v>
+        <v>-21.61429999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.5093</v>
+        <v>-6.581399999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.9529</v>
+        <v>-20.3673</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.80030000000001</v>
+        <v>-21.86650000000001</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.811300000000006</v>
+        <v>-8.727399999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.730799999999995</v>
+        <v>-8.622299999999997</v>
       </c>
     </row>
     <row r="88">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-9.113399999999993</v>
+        <v>-8.988899999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.57139999999998</v>
+        <v>-20.71819999999997</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.42400000000001</v>
+        <v>-21.50210000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.154000000000003</v>
+        <v>-8.048200000000003</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.7109</v>
+        <v>-21.7132</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
